--- a/TestExcel/Excel/SeleniumTest.xlsx
+++ b/TestExcel/Excel/SeleniumTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="350" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="270" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>行号</t>
   </si>
@@ -210,6 +210,27 @@
   </si>
   <si>
     <t>rewrwe</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>启动谷歌浏览器</t>
+  </si>
+  <si>
+    <t>newDriver</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>启动浏览器</t>
+  </si>
+  <si>
+    <t>Ch</t>
   </si>
 </sst>
 </file>
@@ -220,7 +241,7 @@
     <numFmt numFmtId="64" formatCode="&quot;¥&quot;#,##0;\\\-&quot;¥&quot;#,##0"/>
     <numFmt numFmtId="65" formatCode="@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11.0"/>
       <name val="宋体"/>
@@ -344,6 +365,12 @@
       <name val="宋体"/>
       <scheme val="minor"/>
       <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
     </font>
   </fonts>
   <fills count="33">
@@ -806,7 +833,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -831,6 +858,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="65" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - 强调文字1" xfId="25" builtinId="30"/>
@@ -1173,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -1227,8 +1255,8 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5">
-        <v>1</v>
+      <c r="A2" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
@@ -1256,57 +1284,30 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="F5" s="11"/>
+      <c r="A3" s="0"/>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F2 F3:F1048537">
       <formula1>"driver,element"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2 E3:E1048537">
       <formula1>"null,cssselector,xpath,id,name,classname,tagname,linktext,partiallinktext"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
-      <formula1>"null"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I2 I3:I1048537">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
-      <formula1>"null,get,click,clear,sendKeys,alert,frame,perform,refresh,back,getTitle,getCurrentUrl,getWindowHandle"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G2 G3:G1048537">
+      <formula1>"null,newDriver,get,click,clear,sendKeys,alert,frame,perform,refresh,back,getTitle,getCurrentUrl,getWindowHandle,getCookie,setCookie"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/TestExcel/Excel/SeleniumTest.xlsx
+++ b/TestExcel/Excel/SeleniumTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="270" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="230" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>行号</t>
   </si>
@@ -231,6 +231,18 @@
   </si>
   <si>
     <t>Ch</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>进入搜狗首页</t>
+  </si>
+  <si>
+    <t>https://www.sogou.com/</t>
   </si>
 </sst>
 </file>
@@ -833,7 +845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -859,6 +871,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="65" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="65" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - 强调文字1" xfId="25" builtinId="30"/>
@@ -1201,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -1259,7 +1272,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>27</v>
@@ -1274,44 +1287,121 @@
         <v>16</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>23</v>
+        <v>68</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="0"/>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
+      <c r="A3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F2 F3:F1048537">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3 F5 F6:F1048538">
       <formula1>"driver,element"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2 E3:E1048537">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E3 E5 E6:E1048538">
       <formula1>"null,cssselector,xpath,id,name,classname,tagname,linktext,partiallinktext"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I2 I3:I1048537">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I5 I6:I1048538 I4 I3 I2">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G2 G3:G1048537">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G2 G4 G3 G5 G6:G1048537">
       <formula1>"null,newDriver,get,click,clear,sendKeys,alert,frame,perform,refresh,back,getTitle,getCurrentUrl,getWindowHandle,getCookie,setCookie"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H2"/>
+    <hyperlink r:id="rId1" ref="H3"/>
+    <hyperlink r:id="rId2" ref="H5"/>
   </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/TestExcel/Excel/SeleniumTest.xlsx
+++ b/TestExcel/Excel/SeleniumTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="230" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="200" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>行号</t>
   </si>
@@ -243,6 +243,36 @@
   </si>
   <si>
     <t>https://www.sogou.com/</t>
+  </si>
+  <si>
+    <t>https://www.imooc.com/</t>
+  </si>
+  <si>
+    <t>进入慕课网首页</t>
+  </si>
+  <si>
+    <t>//*[@class='redrain-redpacket']div[1]</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>取消优惠</t>
+  </si>
+  <si>
+    <t>bull</t>
+  </si>
+  <si>
+    <t>//*[@class='redrain-redpacket']/div[1]</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>点击登录</t>
+  </si>
+  <si>
+    <t>#js-signin-btn</t>
   </si>
 </sst>
 </file>
@@ -1214,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -1359,7 +1389,7 @@
         <v>73</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>27</v>
@@ -1377,9 +1407,67 @@
         <v>17</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1402,6 +1490,7 @@
   <hyperlinks>
     <hyperlink r:id="rId1" ref="H3"/>
     <hyperlink r:id="rId2" ref="H5"/>
+    <hyperlink r:id="rId3" ref="D6"/>
   </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/TestExcel/Excel/SeleniumTest.xlsx
+++ b/TestExcel/Excel/SeleniumTest.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="200" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="180" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -15,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>行号</t>
   </si>
@@ -273,6 +275,249 @@
   </si>
   <si>
     <t>#js-signin-btn</t>
+  </si>
+  <si>
+    <t>打开官网</t>
+  </si>
+  <si>
+    <t>输入用户名</t>
+  </si>
+  <si>
+    <t>输入密码</t>
+  </si>
+  <si>
+    <t>验证登录用户</t>
+  </si>
+  <si>
+    <t>https://healthpc.qajeejio.com/</t>
+  </si>
+  <si>
+    <t>input[]</t>
+  </si>
+  <si>
+    <t>input[type='text']</t>
+  </si>
+  <si>
+    <t>17701333349</t>
+  </si>
+  <si>
+    <t>input[type='password']</t>
+  </si>
+  <si>
+    <t>1234qwer</t>
+  </si>
+  <si>
+    <t>.BlueLogin</t>
+  </si>
+  <si>
+    <t>.user-name-box</t>
+  </si>
+  <si>
+    <t>getText</t>
+  </si>
+  <si>
+    <t>李俊</t>
+  </si>
+  <si>
+    <t>李俊3394</t>
+  </si>
+  <si>
+    <t>input[type='tet']</t>
+  </si>
+  <si>
+    <t>18104963187</t>
+  </si>
+  <si>
+    <t>孙策87</t>
+  </si>
+  <si>
+    <t>孙策871</t>
+  </si>
+  <si>
+    <t>李俊3349</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>移动至我的项目</t>
+  </si>
+  <si>
+    <t>验证登录用户信息</t>
+  </si>
+  <si>
+    <t>打开脑健康官网</t>
+  </si>
+  <si>
+    <t>点击技能包tab</t>
+  </si>
+  <si>
+    <t>.asideMenu&gt;li:nth-child(4)&gt;div</t>
+  </si>
+  <si>
+    <t>.addBtn</t>
+  </si>
+  <si>
+    <t>点击新增技能包</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>填写图片</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[name='file']</t>
+  </si>
+  <si>
+    <t>E:/桌面/图片/512x5112.png</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>等待时间</t>
+  </si>
+  <si>
+    <t>Thead</t>
+  </si>
+  <si>
+    <t>获取cookie</t>
+  </si>
+  <si>
+    <t>getCookie</t>
+  </si>
+  <si>
+    <t>https://login.qajeejio.com/?=https%3A%2F%2Fopen.qajeejio.com</t>
+  </si>
+  <si>
+    <t>打开开放平台官网</t>
+  </si>
+  <si>
+    <t>21379</t>
+  </si>
+  <si>
+    <t>.ground&gt;div:</t>
+  </si>
+  <si>
+    <t>.ground&gt;div:nth-child(4)&gt;input:nth-child(2)</t>
+  </si>
+  <si>
+    <t>input[type='password']:nth-child(2)</t>
+  </si>
+  <si>
+    <t>.ground&gt;div:nth-child(4)&gt;input:nth-child(3)</t>
+  </si>
+  <si>
+    <t>.nav-mid&gt;li:nth-child()</t>
+  </si>
+  <si>
+    <t>2null</t>
+  </si>
+  <si>
+    <t>点击资质认证</t>
+  </si>
+  <si>
+    <t>.nav-mid&gt;li:nth-child(2)</t>
+  </si>
+  <si>
+    <t>打开博客园官网</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/</t>
+  </si>
+  <si>
+    <t>#span_userinfo&gt;a:nth-child()</t>
+  </si>
+  <si>
+    <t>#span_userinfo&gt;a:nth-child(1)</t>
+  </si>
+  <si>
+    <t>#mat-input-0</t>
+  </si>
+  <si>
+    <t>bwm</t>
+  </si>
+  <si>
+    <t>1997nian.</t>
+  </si>
+  <si>
+    <t>button[]</t>
+  </si>
+  <si>
+    <t>button[color='primary']&gt;span</t>
+  </si>
+  <si>
+    <t>https://home.cnblogs.com/u/buwanmei</t>
+  </si>
+  <si>
+    <t>写入cookie</t>
+  </si>
+  <si>
+    <t>setCookie</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>获取登录用户token</t>
+  </si>
+  <si>
+    <t>unll</t>
+  </si>
+  <si>
+    <t>.CNBlogsCookie</t>
+  </si>
+  <si>
+    <t>http://www.xiazaij.com/</t>
+  </si>
+  <si>
+    <t>.right-nav&gt;a:nth-child(4)</t>
+  </si>
+  <si>
+    <t>[name='login_name']</t>
+  </si>
+  <si>
+    <t>button[type='button']</t>
+  </si>
+  <si>
+    <t>bwmqq</t>
+  </si>
+  <si>
+    <t>fanxiangyang520</t>
+  </si>
+  <si>
+    <t>写入session</t>
+  </si>
+  <si>
+    <t>wp_xh_session_d924865d7f52db481098186534448ed4</t>
+  </si>
+  <si>
+    <t>访问信息页</t>
+  </si>
+  <si>
+    <t>http://www.xiazaij.com/wp-admin/profile.php</t>
+  </si>
+  <si>
+    <t>睡眠</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>20000</t>
   </si>
 </sst>
 </file>
@@ -1244,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -1255,11 +1500,408 @@
     <col min="1" max="1" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
     <col min="2" max="2" style="5" width="17.48048412" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="5" width="18.61199008" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="5" width="31.05855762" customWidth="1" outlineLevel="0"/>
     <col min="5" max="5" style="5" width="12.07439910" customWidth="1" outlineLevel="0"/>
     <col min="6" max="6" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
     <col min="7" max="7" style="5" width="22.13223087" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" style="5" width="23.89235317" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" style="5" width="31.05855762" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" style="5" width="15.21747218" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="6" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F1 F3:F6 F3:F6 F7:F1048533 F7">
+      <formula1>"driver,element"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E1 E3:E6 E3:E6 E7:E1048533 E7">
+      <formula1>"null,cssselector,xpath,id,name,classname,tagname,linktext,partiallinktext"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I1 I3:I6 I3:I6 I7:I1048533 I7 I2 I2">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G:G">
+      <formula1>"null,get,click,clear,sendKeys,alert,frame,Thead,getText,perform,refresh,back,getTitle,getCurrentUrl,getWindowHandle,getCookie,setCookie"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="H3"/>
+  </hyperlinks>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.500000"/>
+  <cols>
+    <col min="1" max="1" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="5" width="17.48048412" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="5" width="43.75657092" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="5" width="12.07439910" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" style="5" width="22.13223087" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" style="5" width="43.00223361" customWidth="1" outlineLevel="0"/>
     <col min="9" max="9" style="5" width="15.21747218" customWidth="1" outlineLevel="0"/>
     <col min="10" max="16383" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
     <col min="16384" max="16384" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
@@ -1331,7 +1973,7 @@
         <v>66</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>27</v>
@@ -1339,20 +1981,20 @@
       <c r="D3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>37</v>
+      <c r="H3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1360,28 +2002,28 @@
         <v>72</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>68</v>
+        <v>154</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1389,27 +2031,27 @@
         <v>73</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>16</v>
+        <v>155</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1418,25 +2060,25 @@
         <v>79</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>82</v>
+      <c r="D6" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>34</v>
@@ -1453,7 +2095,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>45</v>
@@ -1470,27 +2112,570 @@
       <c r="I7" s="11" t="s">
         <v>34</v>
       </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3 F5 F6:F1048538">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F7 F3:F7 F10:F14 F8:F1048531 F8 F15 F8 F8 F15">
       <formula1>"driver,element"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E3 E5 E6:E1048538">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E3:E7 E3:E7 E10:E14 E8:E1048531 E8 E15 E8 E8 E15">
       <formula1>"null,cssselector,xpath,id,name,classname,tagname,linktext,partiallinktext"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I5 I6:I1048538 I4 I3 I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I3:I7 I3:I7 I10:I14 I8:I1048531 I8 I15 I8 I8 I15 I2 I2 I9">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G2 G4 G3 G5 G6:G1048537">
-      <formula1>"null,newDriver,get,click,clear,sendKeys,alert,frame,perform,refresh,back,getTitle,getCurrentUrl,getWindowHandle,getCookie,setCookie"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G7 G2:G7 G9:G14 G8:G1048575 G8 G15">
+      <formula1>"null,get,click,clear,sendKeys,alert,frame,getText,perform,refresh,back,getTitle,getCurrentUrl,getWindowHandle,getCookie,setCookie"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="H2"/>
+    <hyperlink r:id="rId2" ref="H3"/>
+  </hyperlinks>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.500000"/>
+  <cols>
+    <col min="2" max="2" width="15.21747218" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="16.85186969" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="29.92705165" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="12.07439910" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="17.22903835" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="48.40831958" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="12.57729064" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="6" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="5"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="5"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="5"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="5"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="5"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="5"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="5"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="5"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="5"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="5"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F7 F2:F1048525 F8 F8">
+      <formula1>"driver,element"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E3:E7 E2:E1048525 E8 E8">
+      <formula1>"null,cssselector,xpath,id,name,classname,tagname,linktext,partiallinktext"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I3:I7 I2:I1048525 I8 I8 I2">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>"null,get,click,clear,sendKeys,alert,Thead,frame,getText,perform,refresh,back,getTitle,getCurrentUrl,getWindowHandle,getCookie,setCookie"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="H3"/>
-    <hyperlink r:id="rId2" ref="H5"/>
-    <hyperlink r:id="rId3" ref="D6"/>
+    <hyperlink r:id="rId2" ref="H9"/>
   </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/TestExcel/Excel/SeleniumTest.xlsx
+++ b/TestExcel/Excel/SeleniumTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="180" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="170" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>行号</t>
   </si>
@@ -518,6 +518,12 @@
   </si>
   <si>
     <t>20000</t>
+  </si>
+  <si>
+    <t>opera</t>
+  </si>
+  <si>
+    <t>Opera</t>
   </si>
 </sst>
 </file>
@@ -2183,7 +2189,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -2252,7 +2258,7 @@
         <v>68</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>37</v>

--- a/TestExcel/Excel/SeleniumTest.xlsx
+++ b/TestExcel/Excel/SeleniumTest.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="170" activeTab="2"/>
+    <workbookView activeTab="0" tabRatio="150" windowHeight="11595" windowWidth="25755" xWindow="360" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="2"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="1"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="172">
   <si>
     <t>行号</t>
   </si>
@@ -524,6 +523,15 @@
   </si>
   <si>
     <t>Opera</t>
+  </si>
+  <si>
+    <t>button[color='primary']&gt;san</t>
+  </si>
+  <si>
+    <t>.asideMenu&gt;li:nth-child(4)&gt;iv</t>
+  </si>
+  <si>
+    <t>.BlueLogi</t>
   </si>
 </sst>
 </file>
@@ -980,230 +988,230 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="64">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="3" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="4" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="4" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="5" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="65" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="65" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="65" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="13" numFmtId="65" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="65" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="65" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="65" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="65" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="19" numFmtId="65" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="65" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="20% - 强调文字1" xfId="25" builtinId="30"/>
-    <cellStyle name="20% - 强调文字2" xfId="29" builtinId="34"/>
-    <cellStyle name="20% - 强调文字3" xfId="33" builtinId="38"/>
-    <cellStyle name="20% - 强调文字4" xfId="37" builtinId="42"/>
-    <cellStyle name="20% - 强调文字5" xfId="41" builtinId="46"/>
-    <cellStyle name="20% - 强调文字6" xfId="45" builtinId="50"/>
-    <cellStyle name="40% - 强调文字1" xfId="26" builtinId="31"/>
-    <cellStyle name="40% - 强调文字2" xfId="30" builtinId="35"/>
-    <cellStyle name="40% - 强调文字3" xfId="34" builtinId="39"/>
-    <cellStyle name="40% - 强调文字4" xfId="38" builtinId="43"/>
-    <cellStyle name="40% - 强调文字5" xfId="42" builtinId="47"/>
-    <cellStyle name="40% - 强调文字6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 强调文字1" xfId="27" builtinId="32"/>
-    <cellStyle name="60% - 强调文字2" xfId="31" builtinId="36"/>
-    <cellStyle name="60% - 强调文字3" xfId="35" builtinId="40"/>
-    <cellStyle name="60% - 强调文字4" xfId="39" builtinId="44"/>
-    <cellStyle name="60% - 强调文字5" xfId="43" builtinId="48"/>
-    <cellStyle name="60% - 强调文字6" xfId="47" builtinId="52"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="好" xfId="21" builtinId="26"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="强调文字1" xfId="24" builtinId="29"/>
-    <cellStyle name="强调文字2" xfId="28" builtinId="33"/>
-    <cellStyle name="强调文字3" xfId="32" builtinId="37"/>
-    <cellStyle name="强调文字4" xfId="36" builtinId="41"/>
-    <cellStyle name="强调文字5" xfId="40" builtinId="45"/>
-    <cellStyle name="强调文字6" xfId="44" builtinId="49"/>
-    <cellStyle name="批注" xfId="8" builtinId="10"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="标题 1" xfId="11" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="12" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="13" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="14" builtinId="19"/>
-    <cellStyle name="检查单元格" xfId="18" builtinId="23"/>
-    <cellStyle name="汇总" xfId="20" builtinId="25"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="解释性文本" xfId="48" builtinId="53"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="计算" xfId="17" builtinId="22"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="输入" xfId="15" builtinId="20"/>
-    <cellStyle name="输出" xfId="16" builtinId="21"/>
-    <cellStyle name="适中" xfId="23" builtinId="28"/>
-    <cellStyle name="链接的单元格" xfId="19" builtinId="24"/>
+    <cellStyle builtinId="30" name="20% - 强调文字1" xfId="25"/>
+    <cellStyle builtinId="34" name="20% - 强调文字2" xfId="29"/>
+    <cellStyle builtinId="38" name="20% - 强调文字3" xfId="33"/>
+    <cellStyle builtinId="42" name="20% - 强调文字4" xfId="37"/>
+    <cellStyle builtinId="46" name="20% - 强调文字5" xfId="41"/>
+    <cellStyle builtinId="50" name="20% - 强调文字6" xfId="45"/>
+    <cellStyle builtinId="31" name="40% - 强调文字1" xfId="26"/>
+    <cellStyle builtinId="35" name="40% - 强调文字2" xfId="30"/>
+    <cellStyle builtinId="39" name="40% - 强调文字3" xfId="34"/>
+    <cellStyle builtinId="43" name="40% - 强调文字4" xfId="38"/>
+    <cellStyle builtinId="47" name="40% - 强调文字5" xfId="42"/>
+    <cellStyle builtinId="51" name="40% - 强调文字6" xfId="46"/>
+    <cellStyle builtinId="32" name="60% - 强调文字1" xfId="27"/>
+    <cellStyle builtinId="36" name="60% - 强调文字2" xfId="31"/>
+    <cellStyle builtinId="40" name="60% - 强调文字3" xfId="35"/>
+    <cellStyle builtinId="44" name="60% - 强调文字4" xfId="39"/>
+    <cellStyle builtinId="48" name="60% - 强调文字5" xfId="43"/>
+    <cellStyle builtinId="52" name="60% - 强调文字6" xfId="47"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="7"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="6"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="1"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="4"/>
+    <cellStyle builtinId="26" name="好" xfId="21"/>
+    <cellStyle builtinId="27" name="差" xfId="22"/>
+    <cellStyle builtinId="29" name="强调文字1" xfId="24"/>
+    <cellStyle builtinId="33" name="强调文字2" xfId="28"/>
+    <cellStyle builtinId="37" name="强调文字3" xfId="32"/>
+    <cellStyle builtinId="41" name="强调文字4" xfId="36"/>
+    <cellStyle builtinId="45" name="强调文字5" xfId="40"/>
+    <cellStyle builtinId="49" name="强调文字6" xfId="44"/>
+    <cellStyle builtinId="10" name="批注" xfId="8"/>
+    <cellStyle builtinId="15" name="标题" xfId="10"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="11"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="12"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="13"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="14"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="18"/>
+    <cellStyle builtinId="25" name="汇总" xfId="20"/>
+    <cellStyle builtinId="5" name="百分比" xfId="3"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="48"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="9"/>
+    <cellStyle builtinId="22" name="计算" xfId="17"/>
+    <cellStyle builtinId="4" name="货币" xfId="2"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="5"/>
+    <cellStyle builtinId="20" name="输入" xfId="15"/>
+    <cellStyle builtinId="21" name="输出" xfId="16"/>
+    <cellStyle builtinId="28" name="适中" xfId="23"/>
+    <cellStyle builtinId="24" name="链接的单元格" xfId="19"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1495,27 +1503,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
   <cols>
-    <col min="1" max="1" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="5" width="17.48048412" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="5" width="31.05855762" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="5" width="12.07439910" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" style="5" width="22.13223087" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" style="5" width="31.05855762" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" style="5" width="15.21747218" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="10" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" style="5" width="9.05704891" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="5" width="17.48048412" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="5" width="9.05704891" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="5" width="31.05855762" outlineLevel="0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="5" width="12.0743991" outlineLevel="0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="5" width="9.05704891" outlineLevel="0" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="5" width="22.13223087" outlineLevel="0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="5" width="31.05855762" outlineLevel="0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="5" width="15.21747218" outlineLevel="0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="5" width="9.05704891" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1">
+    <row customFormat="1" r="1" s="6" spans="1:10">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1674,7 +1682,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>45</v>
@@ -1690,6 +1698,9 @@
       </c>
       <c r="I6" s="11" t="s">
         <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1720,6 +1731,9 @@
       <c r="I7" s="11" t="s">
         <v>34</v>
       </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
@@ -1869,30 +1883,30 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F1 F3:F6 F3:F6 F7:F1048533 F7">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F1 F1 F3:F6 F3:F6 F7:F1048533 F7" type="list">
       <formula1>"driver,element"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E1 E3:E6 E3:E6 E7:E1048533 E7">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E1 E1 E3:E6 E3:E6 E7:E1048533 E7" type="list">
       <formula1>"null,cssselector,xpath,id,name,classname,tagname,linktext,partiallinktext"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I1 I3:I6 I3:I6 I7:I1048533 I7 I2 I2">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="I1 I1 I3:I6 I3:I6 I7:I1048533 I7 I2 I2" type="list">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G:G">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G:G" type="list">
       <formula1>"null,get,click,clear,sendKeys,alert,frame,Thead,getText,perform,refresh,back,getTitle,getCurrentUrl,getWindowHandle,getCookie,setCookie"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="H3"/>
   </hyperlinks>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.30" header="0.30" left="0.70" right="0.70" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
@@ -1900,20 +1914,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
   <cols>
-    <col min="1" max="1" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="5" width="17.48048412" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="5" width="43.75657092" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="5" width="12.07439910" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" style="5" width="22.13223087" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" style="5" width="43.00223361" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" style="5" width="15.21747218" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="16383" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
-    <col min="16384" max="16384" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" style="5" width="9.05704891" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="5" width="17.48048412" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="5" width="9.05704891" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="5" width="43.75657092" outlineLevel="0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="5" width="12.0743991" outlineLevel="0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="5" width="9.05704891" outlineLevel="0" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="5" width="22.13223087" outlineLevel="0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="5" width="43.00223361" outlineLevel="0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="5" width="15.21747218" outlineLevel="0" collapsed="false"/>
+    <col min="10" max="16383" customWidth="true" style="5" width="9.05704891" outlineLevel="0" collapsed="false"/>
+    <col min="16384" max="16384" customWidth="true" style="5" width="9.05704891" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1">
+    <row customFormat="1" r="1" s="6" spans="1:10">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2162,16 +2176,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F7 F3:F7 F10:F14 F8:F1048531 F8 F15 F8 F8 F15">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F1 F3:F7 F3:F7 F10:F14 F8:F1048531 F8 F15 F8 F8 F15" type="list">
       <formula1>"driver,element"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E3:E7 E3:E7 E10:E14 E8:E1048531 E8 E15 E8 E8 E15">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E1 E3:E7 E3:E7 E10:E14 E8:E1048531 E8 E15 E8 E8 E15" type="list">
       <formula1>"null,cssselector,xpath,id,name,classname,tagname,linktext,partiallinktext"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I3:I7 I3:I7 I10:I14 I8:I1048531 I8 I15 I8 I8 I15 I2 I2 I9">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="I1 I3:I7 I3:I7 I10:I14 I8:I1048531 I8 I15 I8 I8 I15 I2 I2 I9" type="list">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G7 G2:G7 G9:G14 G8:G1048575 G8 G15">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G1:G7 G2:G7 G9:G14 G8:G1048575 G8 G15" type="list">
       <formula1>"null,get,click,clear,sendKeys,alert,frame,getText,perform,refresh,back,getTitle,getCurrentUrl,getWindowHandle,getCookie,setCookie"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2179,31 +2193,31 @@
     <hyperlink r:id="rId1" ref="H2"/>
     <hyperlink r:id="rId2" ref="H3"/>
   </hyperlinks>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.30" header="0.30" left="0.70" right="0.70" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
   <cols>
-    <col min="2" max="2" width="15.21747218" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="16.85186969" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="29.92705165" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" width="12.07439910" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" width="17.22903835" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" width="48.40831958" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" width="12.57729064" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" width="15.21747218" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="16.85186969" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="29.92705165" outlineLevel="0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="12.0743991" outlineLevel="0" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="17.22903835" outlineLevel="0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="48.40831958" outlineLevel="0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="12.57729064" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1">
+    <row customFormat="1" r="1" s="6" spans="1:10">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2666,16 +2680,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F7 F2:F1048525 F8 F8">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F1 F3:F7 F2:F1048525 F8 F8" type="list">
       <formula1>"driver,element"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E3:E7 E2:E1048525 E8 E8">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E1 E3:E7 E2:E1048525 E8 E8" type="list">
       <formula1>"null,cssselector,xpath,id,name,classname,tagname,linktext,partiallinktext"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I3:I7 I2:I1048525 I8 I8 I2">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="I1 I3:I7 I2:I1048525 I8 I8 I2" type="list">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G1:G1048576" type="list">
       <formula1>"null,get,click,clear,sendKeys,alert,Thead,frame,getText,perform,refresh,back,getTitle,getCurrentUrl,getWindowHandle,getCookie,setCookie"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2683,7 +2697,7 @@
     <hyperlink r:id="rId1" ref="H3"/>
     <hyperlink r:id="rId2" ref="H9"/>
   </hyperlinks>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.30" header="0.30" left="0.70" right="0.70" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>